--- a/data/financial_statements/sofp/KHC.xlsx
+++ b/data/financial_statements/sofp/KHC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -149,9 +266,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -204,12 +318,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -514,138 +625,138 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>997000000</v>
       </c>
       <c r="C2">
-        <v>1519000000</v>
+        <v>1518000000</v>
       </c>
       <c r="D2">
-        <v>2979000000</v>
+        <v>2978000000</v>
       </c>
       <c r="E2">
         <v>3445000000</v>
@@ -757,8 +868,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2055000000</v>
@@ -879,8 +990,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3535000000</v>
@@ -1001,23 +1112,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1273000000</v>
+        <v>1049000000</v>
       </c>
       <c r="C5">
-        <v>1041000000</v>
+        <v>851000000</v>
       </c>
       <c r="D5">
-        <v>1136000000</v>
+        <v>958000000</v>
       </c>
       <c r="E5">
-        <v>863000000</v>
+        <v>727000000</v>
       </c>
       <c r="F5">
-        <v>2487000000</v>
+        <v>2329000000</v>
       </c>
       <c r="G5">
         <v>2467000000</v>
@@ -1123,8 +1234,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>7860000000</v>
@@ -1245,8 +1356,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>6417000000</v>
@@ -1258,7 +1369,7 @@
         <v>6602000000</v>
       </c>
       <c r="E7">
-        <v>7375000000</v>
+        <v>6806000000</v>
       </c>
       <c r="F7">
         <v>6588000000</v>
@@ -1367,8 +1478,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>397000000</v>
@@ -1408,8 +1519,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>72928000000</v>
@@ -1530,23 +1641,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>2390000000</v>
+        <v>2787000000</v>
       </c>
       <c r="C10">
-        <v>2535000000</v>
+        <v>2834000000</v>
       </c>
       <c r="D10">
-        <v>2638000000</v>
+        <v>2907000000</v>
       </c>
       <c r="E10">
-        <v>2005000000</v>
+        <v>2756000000</v>
       </c>
       <c r="F10">
-        <v>2354000000</v>
+        <v>2563000000</v>
       </c>
       <c r="G10">
         <v>2624000000</v>
@@ -1652,8 +1763,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>82132000000</v>
@@ -1774,8 +1885,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>89992000000</v>
@@ -1896,16 +2007,16 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="AE13">
         <v>2000000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>4733000000</v>
@@ -2026,8 +2137,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Z15">
         <v>769000000</v>
@@ -2058,8 +2169,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>811000000</v>
@@ -2180,8 +2291,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>774000000</v>
@@ -2193,7 +2304,7 @@
         <v>780000000</v>
       </c>
       <c r="E17">
-        <v>887000000</v>
+        <v>754000000</v>
       </c>
       <c r="F17">
         <v>1035000000</v>
@@ -2290,8 +2401,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E18">
         <v>541000000</v>
@@ -2343,23 +2454,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3179000000</v>
+        <v>2113000000</v>
       </c>
       <c r="C19">
-        <v>3147000000</v>
+        <v>1990000000</v>
       </c>
       <c r="D19">
-        <v>3674000000</v>
+        <v>2485000000</v>
       </c>
       <c r="E19">
-        <v>2883000000</v>
+        <v>2485000000</v>
       </c>
       <c r="F19">
-        <v>3040000000</v>
+        <v>1847000000</v>
       </c>
       <c r="G19">
         <v>2588000000</v>
@@ -2462,8 +2573,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>8686000000</v>
@@ -2584,8 +2695,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>19296000000</v>
@@ -2597,7 +2708,7 @@
         <v>20970000000</v>
       </c>
       <c r="E21">
-        <v>21545000000</v>
+        <v>21061000000</v>
       </c>
       <c r="F21">
         <v>22937000000</v>
@@ -2706,8 +2817,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1490000000</v>
@@ -2723,8 +2834,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>194000000</v>
@@ -2845,8 +2956,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>10285000000</v>
@@ -2967,8 +3078,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>37000000</v>
@@ -3029,23 +3140,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>1892000000</v>
+        <v>3188000000</v>
       </c>
       <c r="C26">
-        <v>1861000000</v>
+        <v>3163000000</v>
       </c>
       <c r="D26">
-        <v>1852000000</v>
+        <v>3168000000</v>
       </c>
       <c r="E26">
-        <v>1263000000</v>
+        <v>3076000000</v>
       </c>
       <c r="F26">
-        <v>1878000000</v>
+        <v>1638000000</v>
       </c>
       <c r="G26">
         <v>1847000000</v>
@@ -3151,8 +3262,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>33000000000</v>
@@ -3273,20 +3384,20 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>41649000000</v>
+        <v>41686000000</v>
       </c>
       <c r="C28">
-        <v>42674000000</v>
+        <v>42714000000</v>
       </c>
       <c r="D28">
-        <v>44020000000</v>
+        <v>44067000000</v>
       </c>
       <c r="E28">
-        <v>43942000000</v>
+        <v>43946000000</v>
       </c>
       <c r="F28">
         <v>44659000000</v>
@@ -3395,8 +3506,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>52077000000</v>
@@ -3517,8 +3628,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="AB30">
         <v>8320000000</v>
@@ -3537,8 +3648,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>12000000</v>
@@ -3635,8 +3746,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-208000000</v>
@@ -3748,16 +3859,16 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AG33">
         <v>367000000</v>
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>729000000</v>
@@ -3872,31 +3983,31 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AN35">
         <v>-48000000</v>
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>48148000000</v>
+        <v>48306000000</v>
       </c>
       <c r="C36">
-        <v>48796000000</v>
+        <v>48962000000</v>
       </c>
       <c r="D36">
-        <v>49644000000</v>
+        <v>49797000000</v>
       </c>
       <c r="E36">
-        <v>49298000000</v>
+        <v>49448000000</v>
       </c>
       <c r="F36">
-        <v>50089000000</v>
+        <v>50238000000</v>
       </c>
       <c r="G36">
         <v>50142000000</v>
@@ -4002,23 +4113,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>48148000000</v>
+        <v>48306000000</v>
       </c>
       <c r="C37">
-        <v>48796000000</v>
+        <v>48962000000</v>
       </c>
       <c r="D37">
-        <v>49644000000</v>
+        <v>49797000000</v>
       </c>
       <c r="E37">
-        <v>49298000000</v>
+        <v>49448000000</v>
       </c>
       <c r="F37">
-        <v>50089000000</v>
+        <v>50238000000</v>
       </c>
       <c r="G37">
         <v>50142000000</v>
@@ -4124,8 +4235,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>89992000000</v>
@@ -4246,8 +4357,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>1227000000</v>
@@ -4368,8 +4479,8 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="AB40">
         <v>80000</v>
@@ -4388,8 +4499,8 @@
       </c>
     </row>
     <row r="41" spans="1:40">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B41">
         <v>-24622000000</v>
@@ -4510,20 +4621,20 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B42">
         <v>19073000000</v>
       </c>
       <c r="C42">
-        <v>19399000000</v>
+        <v>19400000000</v>
       </c>
       <c r="D42">
-        <v>18771000000</v>
+        <v>18772000000</v>
       </c>
       <c r="E42">
-        <v>18987000000</v>
+        <v>18370000000</v>
       </c>
       <c r="F42">
         <v>21699000000</v>
@@ -4632,8 +4743,8 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B43">
         <v>20070000000</v>
@@ -4645,7 +4756,7 @@
         <v>21750000000</v>
       </c>
       <c r="E43">
-        <v>22432000000</v>
+        <v>21815000000</v>
       </c>
       <c r="F43">
         <v>23972000000</v>
